--- a/Project/ShoppingList.xlsx
+++ b/Project/ShoppingList.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -672,12 +672,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Koenigsegg Jesko</t>
+          <t>Lotus Evija</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2,800,000 CR</t>
+          <t>2,500,000 CR</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -690,12 +690,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mercedes AMG One</t>
+          <t>Rimac Concept Two</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2,700,000 CR</t>
+          <t>2,000,000 CR</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -708,12 +708,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hennessey Venom F5</t>
+          <t>Porsche Taycan Turbo S</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3,000,000 CR</t>
+          <t>185,000 CR</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lamborghini Sesto Elemento</t>
+          <t>Ford Mustang Mach-E 1400</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2,500,000 CR</t>
+          <t>750,000 CR</t>
         </is>
       </c>
       <c r="D17" t="n">

--- a/Project/ShoppingList.xlsx
+++ b/Project/ShoppingList.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">

--- a/Project/ShoppingList.xlsx
+++ b/Project/ShoppingList.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,8 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lamborghini Sesto Elemento</t>
+          <t>Lamborghini Sesto
+Elemento</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -519,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +556,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +592,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -654,7 +655,8 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mercedes-Benz E63 AMG</t>
+          <t>Mercedes-Benz
+   E63 AMG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -663,7 +665,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -681,7 +683,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -699,7 +701,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -708,7 +710,8 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Porsche Taycan Turbo S</t>
+          <t>Porsche Taycan
+                Turbo S</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -717,7 +720,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -726,7 +729,8 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ford Mustang Mach-E 1400</t>
+          <t>Ford Mustang
+                Mach-E 1400</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -735,7 +739,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
